--- a/TM.RestHour/Equipment/EquipmentList.xlsx
+++ b/TM.RestHour/Equipment/EquipmentList.xlsx
@@ -39,28 +39,25 @@
     <t>Location</t>
   </si>
   <si>
-    <t>equ 66</t>
+    <t>aaj</t>
   </si>
   <si>
-    <t>22ml</t>
+    <t>8</t>
   </si>
   <si>
-    <t>20.11.2020</t>
+    <t>20.10.2020</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>kolkata</t>
+    <t>okll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,22 +143,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -173,6 +158,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -235,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -270,7 +267,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -458,7 +455,7 @@
   <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,28 +463,28 @@
     <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="15" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
     <col min="6" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -498,10 +495,10 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -514,24 +511,24 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
@@ -539,7 +536,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
@@ -547,7 +544,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
@@ -555,7 +552,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
@@ -563,7 +560,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
@@ -571,7 +568,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
@@ -579,7 +576,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
@@ -587,7 +584,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
@@ -595,7 +592,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
@@ -603,7 +600,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
@@ -611,7 +608,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
@@ -619,7 +616,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
@@ -627,7 +624,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
@@ -635,7 +632,7 @@
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
@@ -643,7 +640,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="6"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
@@ -651,7 +648,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
@@ -659,7 +656,7 @@
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
@@ -667,7 +664,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
@@ -675,7 +672,7 @@
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
@@ -683,7 +680,7 @@
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
@@ -691,7 +688,7 @@
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
@@ -699,7 +696,7 @@
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
@@ -707,7 +704,7 @@
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
@@ -715,7 +712,7 @@
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
@@ -723,7 +720,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="6"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
@@ -731,7 +728,7 @@
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
@@ -739,7 +736,7 @@
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
@@ -747,7 +744,7 @@
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
@@ -755,7 +752,7 @@
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
@@ -763,7 +760,7 @@
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="6"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
@@ -771,7 +768,7 @@
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="6"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
@@ -779,7 +776,7 @@
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="6"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
@@ -787,7 +784,7 @@
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="6"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
@@ -795,7 +792,7 @@
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="6"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
@@ -803,7 +800,7 @@
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="6"/>
+      <c r="D39" s="13"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
@@ -811,7 +808,7 @@
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="6"/>
+      <c r="D40" s="13"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
@@ -819,7 +816,7 @@
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="6"/>
+      <c r="D41" s="13"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
@@ -827,7 +824,7 @@
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="6"/>
+      <c r="D42" s="13"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
@@ -835,7 +832,7 @@
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="6"/>
+      <c r="D43" s="13"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
@@ -843,7 +840,7 @@
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="6"/>
+      <c r="D44" s="13"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
@@ -851,7 +848,7 @@
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="6"/>
+      <c r="D45" s="13"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
@@ -859,7 +856,7 @@
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="6"/>
+      <c r="D46" s="13"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
@@ -867,7 +864,7 @@
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="6"/>
+      <c r="D47" s="13"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
@@ -875,7 +872,7 @@
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="6"/>
+      <c r="D48" s="13"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
@@ -883,7 +880,7 @@
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="6"/>
+      <c r="D49" s="13"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
@@ -891,7 +888,7 @@
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="6"/>
+      <c r="D50" s="13"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
@@ -899,7 +896,7 @@
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="6"/>
+      <c r="D51" s="13"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
@@ -907,7 +904,7 @@
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="6"/>
+      <c r="D52" s="13"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
@@ -915,7 +912,7 @@
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="6"/>
+      <c r="D53" s="13"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
@@ -923,7 +920,7 @@
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="6"/>
+      <c r="D54" s="13"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
@@ -931,7 +928,7 @@
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="6"/>
+      <c r="D55" s="13"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
@@ -939,7 +936,7 @@
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="6"/>
+      <c r="D56" s="13"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
@@ -947,7 +944,7 @@
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="6"/>
+      <c r="D57" s="13"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
@@ -955,7 +952,7 @@
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="6"/>
+      <c r="D58" s="13"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
@@ -963,7 +960,7 @@
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="6"/>
+      <c r="D59" s="13"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
@@ -971,7 +968,7 @@
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="6"/>
+      <c r="D60" s="13"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
@@ -979,7 +976,7 @@
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="13"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
@@ -987,7 +984,7 @@
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="6"/>
+      <c r="D62" s="13"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
@@ -995,7 +992,7 @@
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="6"/>
+      <c r="D63" s="13"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
@@ -1003,7 +1000,7 @@
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="6"/>
+      <c r="D64" s="13"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
@@ -1011,7 +1008,7 @@
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="6"/>
+      <c r="D65" s="13"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
@@ -1019,7 +1016,7 @@
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="6"/>
+      <c r="D66" s="13"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
@@ -1027,7 +1024,7 @@
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="6"/>
+      <c r="D67" s="13"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
@@ -1035,7 +1032,7 @@
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="6"/>
+      <c r="D68" s="13"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
@@ -1043,7 +1040,7 @@
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="6"/>
+      <c r="D69" s="13"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
@@ -1051,7 +1048,7 @@
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="6"/>
+      <c r="D70" s="13"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
@@ -1059,7 +1056,7 @@
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="6"/>
+      <c r="D71" s="13"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
@@ -1067,7 +1064,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="6"/>
+      <c r="D72" s="13"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
@@ -1075,7 +1072,7 @@
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="6"/>
+      <c r="D73" s="13"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
     </row>
@@ -1083,7 +1080,7 @@
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="6"/>
+      <c r="D74" s="13"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
     </row>
@@ -1091,7 +1088,7 @@
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="6"/>
+      <c r="D75" s="13"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
@@ -1099,7 +1096,7 @@
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="6"/>
+      <c r="D76" s="13"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
@@ -1107,7 +1104,7 @@
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="6"/>
+      <c r="D77" s="13"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
@@ -1115,7 +1112,7 @@
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="6"/>
+      <c r="D78" s="13"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
@@ -1123,7 +1120,7 @@
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="6"/>
+      <c r="D79" s="13"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
@@ -1131,7 +1128,7 @@
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="6"/>
+      <c r="D80" s="13"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
@@ -1139,7 +1136,7 @@
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="6"/>
+      <c r="D81" s="13"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
@@ -1147,7 +1144,7 @@
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="6"/>
+      <c r="D82" s="13"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
@@ -1155,7 +1152,7 @@
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="6"/>
+      <c r="D83" s="13"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
@@ -1163,7 +1160,7 @@
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="6"/>
+      <c r="D84" s="13"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
@@ -1171,7 +1168,7 @@
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="6"/>
+      <c r="D85" s="13"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
@@ -1179,7 +1176,7 @@
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="6"/>
+      <c r="D86" s="13"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
@@ -1187,7 +1184,7 @@
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="6"/>
+      <c r="D87" s="13"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
@@ -1195,7 +1192,7 @@
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="6"/>
+      <c r="D88" s="13"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
@@ -1203,7 +1200,7 @@
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="6"/>
+      <c r="D89" s="13"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
@@ -1211,7 +1208,7 @@
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="6"/>
+      <c r="D90" s="13"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
     </row>
@@ -1219,7 +1216,7 @@
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="6"/>
+      <c r="D91" s="13"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
@@ -1227,7 +1224,7 @@
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="6"/>
+      <c r="D92" s="13"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
@@ -1235,7 +1232,7 @@
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="6"/>
+      <c r="D93" s="13"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
@@ -1243,7 +1240,7 @@
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="6"/>
+      <c r="D94" s="13"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
@@ -1251,7 +1248,7 @@
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="6"/>
+      <c r="D95" s="13"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
     </row>
@@ -1259,7 +1256,7 @@
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="6"/>
+      <c r="D96" s="13"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
@@ -1267,7 +1264,7 @@
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="6"/>
+      <c r="D97" s="13"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
@@ -1275,7 +1272,7 @@
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="6"/>
+      <c r="D98" s="13"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
     </row>
@@ -1283,7 +1280,7 @@
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="6"/>
+      <c r="D99" s="13"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
@@ -1291,7 +1288,7 @@
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="6"/>
+      <c r="D100" s="13"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
@@ -1299,7 +1296,7 @@
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="6"/>
+      <c r="D101" s="13"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
     </row>
@@ -1307,7 +1304,7 @@
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="6"/>
+      <c r="D102" s="13"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
     </row>
@@ -1315,7 +1312,7 @@
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="6"/>
+      <c r="D103" s="13"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
@@ -1323,7 +1320,7 @@
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="6"/>
+      <c r="D104" s="13"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
@@ -1331,7 +1328,7 @@
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="6"/>
+      <c r="D105" s="13"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
@@ -1339,7 +1336,7 @@
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="3"/>
-      <c r="D106" s="6"/>
+      <c r="D106" s="13"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
@@ -1347,7 +1344,7 @@
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="3"/>
-      <c r="D107" s="6"/>
+      <c r="D107" s="13"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
@@ -1355,7 +1352,7 @@
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="3"/>
-      <c r="D108" s="6"/>
+      <c r="D108" s="13"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
     </row>
@@ -1363,7 +1360,7 @@
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="6"/>
+      <c r="D109" s="13"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
@@ -1371,7 +1368,7 @@
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="6"/>
+      <c r="D110" s="13"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
@@ -1379,7 +1376,7 @@
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="6"/>
+      <c r="D111" s="13"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
     </row>
@@ -1387,7 +1384,7 @@
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="3"/>
-      <c r="D112" s="6"/>
+      <c r="D112" s="13"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
@@ -1395,7 +1392,7 @@
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="3"/>
-      <c r="D113" s="6"/>
+      <c r="D113" s="13"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
     </row>
@@ -1403,7 +1400,7 @@
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="6"/>
+      <c r="D114" s="13"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
@@ -1411,7 +1408,7 @@
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="6"/>
+      <c r="D115" s="13"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
@@ -1419,7 +1416,7 @@
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="3"/>
-      <c r="D116" s="6"/>
+      <c r="D116" s="13"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
     </row>
@@ -1427,7 +1424,7 @@
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="3"/>
-      <c r="D117" s="6"/>
+      <c r="D117" s="13"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
@@ -1435,7 +1432,7 @@
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="3"/>
-      <c r="D118" s="6"/>
+      <c r="D118" s="13"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
@@ -1443,7 +1440,7 @@
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="6"/>
+      <c r="D119" s="13"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
@@ -1451,7 +1448,7 @@
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="3"/>
-      <c r="D120" s="6"/>
+      <c r="D120" s="13"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
@@ -1459,7 +1456,7 @@
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="3"/>
-      <c r="D121" s="6"/>
+      <c r="D121" s="13"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
     </row>
@@ -1467,7 +1464,7 @@
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="6"/>
+      <c r="D122" s="13"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
@@ -1475,7 +1472,7 @@
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="6"/>
+      <c r="D123" s="13"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
@@ -1483,7 +1480,7 @@
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="3"/>
-      <c r="D124" s="6"/>
+      <c r="D124" s="13"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
     </row>
@@ -1491,7 +1488,7 @@
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="3"/>
-      <c r="D125" s="6"/>
+      <c r="D125" s="13"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
@@ -1499,7 +1496,7 @@
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="3"/>
-      <c r="D126" s="6"/>
+      <c r="D126" s="13"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
@@ -1507,7 +1504,7 @@
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="3"/>
-      <c r="D127" s="6"/>
+      <c r="D127" s="13"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
@@ -1515,285 +1512,285 @@
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="3"/>
-      <c r="D128" s="6"/>
+      <c r="D128" s="13"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
-      <c r="B129" s="11"/>
+      <c r="B129" s="7"/>
       <c r="C129" s="3"/>
-      <c r="D129" s="6"/>
+      <c r="D129" s="13"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
-      <c r="B130" s="11"/>
+      <c r="B130" s="7"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="6"/>
+      <c r="D130" s="13"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
-      <c r="B131" s="11"/>
+      <c r="B131" s="7"/>
       <c r="C131" s="3"/>
-      <c r="D131" s="6"/>
+      <c r="D131" s="13"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
-      <c r="B132" s="11"/>
+      <c r="B132" s="7"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="6"/>
+      <c r="D132" s="13"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
-      <c r="B133" s="11"/>
+      <c r="B133" s="7"/>
       <c r="C133" s="3"/>
-      <c r="D133" s="6"/>
+      <c r="D133" s="13"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
-      <c r="B134" s="11"/>
+      <c r="B134" s="7"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="6"/>
+      <c r="D134" s="13"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
-      <c r="B135" s="11"/>
+      <c r="B135" s="7"/>
       <c r="C135" s="3"/>
-      <c r="D135" s="6"/>
+      <c r="D135" s="13"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
-      <c r="B136" s="11"/>
+      <c r="B136" s="7"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="6"/>
+      <c r="D136" s="13"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
-      <c r="B137" s="11"/>
+      <c r="B137" s="7"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="6"/>
+      <c r="D137" s="13"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
-      <c r="B138" s="11"/>
+      <c r="B138" s="7"/>
       <c r="C138" s="3"/>
-      <c r="D138" s="6"/>
+      <c r="D138" s="13"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
-      <c r="B139" s="11"/>
+      <c r="B139" s="7"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="6"/>
+      <c r="D139" s="13"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
-      <c r="B140" s="11"/>
+      <c r="B140" s="7"/>
       <c r="C140" s="3"/>
-      <c r="D140" s="6"/>
+      <c r="D140" s="13"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
-      <c r="B141" s="11"/>
+      <c r="B141" s="7"/>
       <c r="C141" s="3"/>
-      <c r="D141" s="6"/>
+      <c r="D141" s="13"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
-      <c r="B142" s="11"/>
+      <c r="B142" s="7"/>
       <c r="C142" s="3"/>
-      <c r="D142" s="6"/>
+      <c r="D142" s="13"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
-      <c r="B143" s="11"/>
+      <c r="B143" s="7"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="6"/>
+      <c r="D143" s="13"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
-      <c r="B144" s="11"/>
+      <c r="B144" s="7"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="6"/>
+      <c r="D144" s="13"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
-      <c r="B145" s="11"/>
+      <c r="B145" s="7"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="6"/>
+      <c r="D145" s="13"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
-      <c r="B146" s="11"/>
+      <c r="B146" s="7"/>
       <c r="C146" s="3"/>
-      <c r="D146" s="6"/>
+      <c r="D146" s="13"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
     <row r="147" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
-      <c r="B147" s="12"/>
+      <c r="B147" s="8"/>
       <c r="C147" s="3"/>
-      <c r="D147" s="6"/>
+      <c r="D147" s="13"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
-      <c r="B148" s="11"/>
+      <c r="B148" s="7"/>
       <c r="C148" s="3"/>
-      <c r="D148" s="6"/>
+      <c r="D148" s="13"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
-      <c r="B149" s="11"/>
+      <c r="B149" s="7"/>
       <c r="C149" s="3"/>
-      <c r="D149" s="6"/>
+      <c r="D149" s="13"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
-      <c r="B150" s="11"/>
+      <c r="B150" s="7"/>
       <c r="C150" s="3"/>
-      <c r="D150" s="6"/>
+      <c r="D150" s="13"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
-      <c r="B151" s="11"/>
+      <c r="B151" s="7"/>
       <c r="C151" s="3"/>
-      <c r="D151" s="6"/>
+      <c r="D151" s="13"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
-      <c r="B152" s="11"/>
+      <c r="B152" s="7"/>
       <c r="C152" s="3"/>
-      <c r="D152" s="6"/>
+      <c r="D152" s="13"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
-      <c r="B153" s="11"/>
+      <c r="B153" s="7"/>
       <c r="C153" s="3"/>
-      <c r="D153" s="6"/>
+      <c r="D153" s="13"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
-      <c r="B154" s="11"/>
+      <c r="B154" s="7"/>
       <c r="C154" s="3"/>
-      <c r="D154" s="6"/>
+      <c r="D154" s="13"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
-      <c r="B155" s="11"/>
+      <c r="B155" s="7"/>
       <c r="C155" s="3"/>
-      <c r="D155" s="6"/>
+      <c r="D155" s="13"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
-      <c r="B156" s="11"/>
+      <c r="B156" s="7"/>
       <c r="C156" s="3"/>
-      <c r="D156" s="6"/>
+      <c r="D156" s="13"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
-      <c r="B157" s="11"/>
+      <c r="B157" s="7"/>
       <c r="C157" s="3"/>
-      <c r="D157" s="6"/>
+      <c r="D157" s="13"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
-      <c r="B158" s="11"/>
+      <c r="B158" s="7"/>
       <c r="C158" s="3"/>
-      <c r="D158" s="6"/>
+      <c r="D158" s="13"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
-      <c r="B159" s="11"/>
+      <c r="B159" s="7"/>
       <c r="C159" s="3"/>
-      <c r="D159" s="6"/>
+      <c r="D159" s="13"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
-      <c r="B160" s="11"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="3"/>
-      <c r="D160" s="6"/>
+      <c r="D160" s="13"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
-      <c r="B161" s="11"/>
+      <c r="B161" s="7"/>
       <c r="C161" s="3"/>
-      <c r="D161" s="6"/>
+      <c r="D161" s="13"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="8"/>
-      <c r="B162" s="9"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="10"/>
+      <c r="A162" s="5"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="14"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="8"/>
-      <c r="B163" s="9"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="10"/>
+      <c r="A163" s="5"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TM.RestHour/Equipment/EquipmentList.xlsx
+++ b/TM.RestHour/Equipment/EquipmentList.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3A3294-31A1-4E57-9D94-C738DD0B0FBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="9672"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipments" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>SL NO</t>
   </si>
@@ -27,37 +28,34 @@
     <t>EquipmentsName</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>ExpiryDate</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>Location</t>
-  </si>
-  <si>
-    <t>aaj</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>20.10.2020</t>
+    <t>RequiredQuantity</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>Unit</t>
   </si>
   <si>
-    <t>okll</t>
+    <t>OnBoardQuantity</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>pcs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,24 +449,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="25.6328125" customWidth="1"/>
+    <col min="6" max="6" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -476,39 +474,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="10"/>
@@ -516,7 +514,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="10"/>
@@ -524,7 +522,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="10"/>
@@ -532,7 +530,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
@@ -540,7 +538,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
@@ -548,7 +546,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
@@ -556,7 +554,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
@@ -564,7 +562,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
@@ -572,7 +570,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
@@ -580,7 +578,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
@@ -588,7 +586,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
@@ -596,7 +594,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
@@ -604,7 +602,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
@@ -612,7 +610,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
@@ -620,7 +618,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
@@ -628,7 +626,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
@@ -636,7 +634,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
@@ -644,7 +642,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
@@ -652,7 +650,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
@@ -660,7 +658,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
@@ -668,7 +666,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
@@ -676,7 +674,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
@@ -684,7 +682,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
@@ -692,7 +690,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
@@ -700,7 +698,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
@@ -708,7 +706,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
@@ -716,7 +714,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
@@ -724,7 +722,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
@@ -732,7 +730,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
@@ -740,7 +738,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
@@ -748,7 +746,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
@@ -756,7 +754,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
@@ -764,7 +762,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
@@ -772,7 +770,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="3"/>
@@ -780,7 +778,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="3"/>
@@ -788,7 +786,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
@@ -796,7 +794,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="3"/>
@@ -804,7 +802,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="3"/>
@@ -812,7 +810,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="3"/>
@@ -820,7 +818,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="3"/>
@@ -828,7 +826,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="3"/>
@@ -836,7 +834,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="3"/>
@@ -844,7 +842,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
@@ -852,7 +850,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="3"/>
@@ -860,7 +858,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="3"/>
@@ -868,7 +866,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="3"/>
@@ -876,7 +874,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="3"/>
@@ -884,7 +882,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="3"/>
@@ -892,7 +890,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="3"/>
@@ -900,7 +898,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="3"/>
@@ -908,7 +906,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="3"/>
@@ -916,7 +914,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="3"/>
@@ -924,7 +922,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="3"/>
@@ -932,7 +930,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="3"/>
@@ -940,7 +938,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="3"/>
@@ -948,7 +946,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="3"/>
@@ -956,7 +954,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="3"/>
@@ -964,7 +962,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="3"/>
@@ -972,7 +970,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="3"/>
@@ -980,7 +978,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="3"/>
@@ -988,7 +986,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="3"/>
@@ -996,7 +994,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="3"/>
@@ -1004,7 +1002,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="3"/>
@@ -1012,7 +1010,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="3"/>
@@ -1020,7 +1018,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="3"/>
@@ -1028,7 +1026,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="3"/>
@@ -1036,7 +1034,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="3"/>
@@ -1044,7 +1042,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="3"/>
@@ -1052,7 +1050,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="3"/>
@@ -1060,7 +1058,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="3"/>
@@ -1068,7 +1066,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="3"/>
@@ -1076,7 +1074,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="3"/>
@@ -1084,7 +1082,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="3"/>
@@ -1092,7 +1090,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="3"/>
@@ -1100,7 +1098,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="3"/>
@@ -1108,7 +1106,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="3"/>
@@ -1116,7 +1114,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="3"/>
@@ -1124,7 +1122,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="3"/>
@@ -1132,7 +1130,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="3"/>
@@ -1140,7 +1138,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="3"/>
@@ -1148,7 +1146,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="3"/>
@@ -1156,7 +1154,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="3"/>
@@ -1164,7 +1162,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="3"/>
@@ -1172,7 +1170,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="3"/>
@@ -1180,7 +1178,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="3"/>
@@ -1188,7 +1186,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="3"/>
@@ -1196,7 +1194,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="3"/>
@@ -1204,7 +1202,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="3"/>
@@ -1212,7 +1210,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="3"/>
@@ -1220,7 +1218,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="3"/>
@@ -1228,7 +1226,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="3"/>
@@ -1236,7 +1234,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="3"/>
@@ -1244,7 +1242,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="3"/>
@@ -1252,7 +1250,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="3"/>
@@ -1260,7 +1258,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="3"/>
@@ -1268,7 +1266,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="3"/>
@@ -1276,7 +1274,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="3"/>
@@ -1284,7 +1282,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="3"/>
@@ -1292,7 +1290,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="3"/>
@@ -1300,7 +1298,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="3"/>
@@ -1308,7 +1306,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="3"/>
@@ -1316,7 +1314,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="3"/>
@@ -1324,7 +1322,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="3"/>
@@ -1332,7 +1330,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="3"/>
@@ -1340,7 +1338,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="3"/>
@@ -1348,7 +1346,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="3"/>
@@ -1356,7 +1354,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="3"/>
@@ -1364,7 +1362,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="3"/>
@@ -1372,7 +1370,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="3"/>
@@ -1380,7 +1378,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="3"/>
@@ -1388,7 +1386,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="3"/>
@@ -1396,7 +1394,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="3"/>
@@ -1404,7 +1402,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="3"/>
@@ -1412,7 +1410,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="3"/>
@@ -1420,7 +1418,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="3"/>
@@ -1428,7 +1426,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="3"/>
@@ -1436,7 +1434,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="3"/>
@@ -1444,7 +1442,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="3"/>
@@ -1452,7 +1450,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="3"/>
@@ -1460,7 +1458,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="3"/>
@@ -1468,7 +1466,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="3"/>
@@ -1476,7 +1474,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="3"/>
@@ -1484,7 +1482,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="3"/>
@@ -1492,7 +1490,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="3"/>
@@ -1500,7 +1498,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="3"/>
@@ -1508,7 +1506,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="3"/>
@@ -1516,7 +1514,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="3"/>
       <c r="B129" s="7"/>
       <c r="C129" s="3"/>
@@ -1524,7 +1522,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="3"/>
       <c r="B130" s="7"/>
       <c r="C130" s="3"/>
@@ -1532,7 +1530,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
       <c r="B131" s="7"/>
       <c r="C131" s="3"/>
@@ -1540,7 +1538,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="3"/>
       <c r="B132" s="7"/>
       <c r="C132" s="3"/>
@@ -1548,7 +1546,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="3"/>
       <c r="B133" s="7"/>
       <c r="C133" s="3"/>
@@ -1556,7 +1554,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="7"/>
       <c r="C134" s="3"/>
@@ -1564,7 +1562,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="7"/>
       <c r="C135" s="3"/>
@@ -1572,7 +1570,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="7"/>
       <c r="C136" s="3"/>
@@ -1580,7 +1578,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="3"/>
       <c r="B137" s="7"/>
       <c r="C137" s="3"/>
@@ -1588,7 +1586,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="3"/>
       <c r="B138" s="7"/>
       <c r="C138" s="3"/>
@@ -1596,7 +1594,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="3"/>
       <c r="B139" s="7"/>
       <c r="C139" s="3"/>
@@ -1604,7 +1602,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="3"/>
       <c r="B140" s="7"/>
       <c r="C140" s="3"/>
@@ -1612,7 +1610,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="3"/>
       <c r="B141" s="7"/>
       <c r="C141" s="3"/>
@@ -1620,7 +1618,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="3"/>
       <c r="B142" s="7"/>
       <c r="C142" s="3"/>
@@ -1628,7 +1626,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="3"/>
       <c r="B143" s="7"/>
       <c r="C143" s="3"/>
@@ -1636,7 +1634,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="3"/>
       <c r="B144" s="7"/>
       <c r="C144" s="3"/>
@@ -1644,7 +1642,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="3"/>
       <c r="B145" s="7"/>
       <c r="C145" s="3"/>
@@ -1652,7 +1650,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="3"/>
       <c r="B146" s="7"/>
       <c r="C146" s="3"/>
@@ -1660,7 +1658,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3"/>
       <c r="B147" s="8"/>
       <c r="C147" s="3"/>
@@ -1668,7 +1666,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="3"/>
       <c r="B148" s="7"/>
       <c r="C148" s="3"/>
@@ -1676,7 +1674,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="3"/>
       <c r="B149" s="7"/>
       <c r="C149" s="3"/>
@@ -1684,7 +1682,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="3"/>
       <c r="B150" s="7"/>
       <c r="C150" s="3"/>
@@ -1692,7 +1690,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="3"/>
       <c r="B151" s="7"/>
       <c r="C151" s="3"/>
@@ -1700,7 +1698,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="3"/>
       <c r="B152" s="7"/>
       <c r="C152" s="3"/>
@@ -1708,7 +1706,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="3"/>
       <c r="B153" s="7"/>
       <c r="C153" s="3"/>
@@ -1716,7 +1714,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="3"/>
       <c r="B154" s="7"/>
       <c r="C154" s="3"/>
@@ -1724,7 +1722,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="3"/>
       <c r="B155" s="7"/>
       <c r="C155" s="3"/>
@@ -1732,7 +1730,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="3"/>
       <c r="B156" s="7"/>
       <c r="C156" s="3"/>
@@ -1740,7 +1738,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="3"/>
       <c r="B157" s="7"/>
       <c r="C157" s="3"/>
@@ -1748,7 +1746,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="3"/>
       <c r="B158" s="7"/>
       <c r="C158" s="3"/>
@@ -1756,7 +1754,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="3"/>
       <c r="B159" s="7"/>
       <c r="C159" s="3"/>
@@ -1764,7 +1762,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="3"/>
       <c r="B160" s="7"/>
       <c r="C160" s="3"/>
@@ -1772,7 +1770,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="3"/>
       <c r="B161" s="7"/>
       <c r="C161" s="3"/>
@@ -1780,13 +1778,13 @@
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="5"/>
       <c r="B162" s="6"/>
       <c r="C162" s="5"/>
       <c r="D162" s="14"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="5"/>
       <c r="B163" s="6"/>
       <c r="C163" s="5"/>

--- a/TM.RestHour/Equipment/EquipmentList.xlsx
+++ b/TM.RestHour/Equipment/EquipmentList.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3A3294-31A1-4E57-9D94-C738DD0B0FBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="9672"/>
   </bookViews>
   <sheets>
     <sheet name="Equipments" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>SL NO</t>
   </si>
@@ -28,34 +27,37 @@
     <t>EquipmentsName</t>
   </si>
   <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>ExpiryDate</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>aaj</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>RequiredQuantity</t>
+    <t>20.10.2020</t>
   </si>
   <si>
-    <t>Unit</t>
+    <t>ok</t>
   </si>
   <si>
-    <t>OnBoardQuantity</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>motor</t>
-  </si>
-  <si>
-    <t>pcs</t>
+    <t>okll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,24 +451,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.6328125" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="25.6328125" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -474,39 +476,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4">
-        <v>6</v>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="10"/>
@@ -514,7 +516,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="10"/>
@@ -522,7 +524,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="10"/>
@@ -530,7 +532,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
@@ -538,7 +540,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
@@ -546,7 +548,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
@@ -554,7 +556,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
@@ -562,7 +564,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
@@ -570,7 +572,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
@@ -578,7 +580,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
@@ -586,7 +588,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
@@ -594,7 +596,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
@@ -602,7 +604,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
@@ -610,7 +612,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
@@ -618,7 +620,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
@@ -626,7 +628,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
@@ -634,7 +636,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
@@ -642,7 +644,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
@@ -650,7 +652,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
@@ -658,7 +660,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
@@ -666,7 +668,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
@@ -674,7 +676,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
@@ -682,7 +684,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
@@ -690,7 +692,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
@@ -698,7 +700,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
@@ -706,7 +708,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
@@ -714,7 +716,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
@@ -722,7 +724,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
@@ -730,7 +732,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
@@ -738,7 +740,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
@@ -746,7 +748,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
@@ -754,7 +756,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
@@ -762,7 +764,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
@@ -770,7 +772,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="3"/>
@@ -778,7 +780,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="3"/>
@@ -786,7 +788,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
@@ -794,7 +796,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="3"/>
@@ -802,7 +804,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="3"/>
@@ -810,7 +812,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="3"/>
@@ -818,7 +820,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="3"/>
@@ -826,7 +828,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="3"/>
@@ -834,7 +836,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="3"/>
@@ -842,7 +844,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
@@ -850,7 +852,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="3"/>
@@ -858,7 +860,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="3"/>
@@ -866,7 +868,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="3"/>
@@ -874,7 +876,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="3"/>
@@ -882,7 +884,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="3"/>
@@ -890,7 +892,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="3"/>
@@ -898,7 +900,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="3"/>
@@ -906,7 +908,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="3"/>
@@ -914,7 +916,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="3"/>
@@ -922,7 +924,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="3"/>
@@ -930,7 +932,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="3"/>
@@ -938,7 +940,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="3"/>
@@ -946,7 +948,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="3"/>
@@ -954,7 +956,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="3"/>
@@ -962,7 +964,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="3"/>
@@ -970,7 +972,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="3"/>
@@ -978,7 +980,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="3"/>
@@ -986,7 +988,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="3"/>
@@ -994,7 +996,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="3"/>
@@ -1002,7 +1004,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="3"/>
@@ -1010,7 +1012,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="3"/>
@@ -1018,7 +1020,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="3"/>
@@ -1026,7 +1028,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="3"/>
@@ -1034,7 +1036,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="3"/>
@@ -1042,7 +1044,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="3"/>
@@ -1050,7 +1052,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="3"/>
@@ -1058,7 +1060,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="3"/>
@@ -1066,7 +1068,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="3"/>
@@ -1074,7 +1076,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="3"/>
@@ -1082,7 +1084,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="3"/>
@@ -1090,7 +1092,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="3"/>
@@ -1098,7 +1100,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="3"/>
@@ -1106,7 +1108,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="3"/>
@@ -1114,7 +1116,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="3"/>
@@ -1122,7 +1124,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="3"/>
@@ -1130,7 +1132,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="3"/>
@@ -1138,7 +1140,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="3"/>
@@ -1146,7 +1148,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="3"/>
@@ -1154,7 +1156,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="3"/>
@@ -1162,7 +1164,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="3"/>
@@ -1170,7 +1172,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="3"/>
@@ -1178,7 +1180,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="3"/>
@@ -1186,7 +1188,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="3"/>
@@ -1194,7 +1196,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="3"/>
@@ -1202,7 +1204,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="3"/>
@@ -1210,7 +1212,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="3"/>
@@ -1218,7 +1220,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="3"/>
@@ -1226,7 +1228,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="3"/>
@@ -1234,7 +1236,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="3"/>
@@ -1242,7 +1244,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="3"/>
@@ -1250,7 +1252,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="3"/>
@@ -1258,7 +1260,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="3"/>
@@ -1266,7 +1268,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="3"/>
@@ -1274,7 +1276,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="3"/>
@@ -1282,7 +1284,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="3"/>
@@ -1290,7 +1292,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="3"/>
@@ -1298,7 +1300,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="3"/>
@@ -1306,7 +1308,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="3"/>
@@ -1314,7 +1316,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="3"/>
@@ -1322,7 +1324,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="3"/>
@@ -1330,7 +1332,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="3"/>
@@ -1338,7 +1340,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="3"/>
@@ -1346,7 +1348,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="3"/>
@@ -1354,7 +1356,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="3"/>
@@ -1362,7 +1364,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="3"/>
@@ -1370,7 +1372,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="3"/>
@@ -1378,7 +1380,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="3"/>
@@ -1386,7 +1388,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="3"/>
@@ -1394,7 +1396,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="3"/>
@@ -1402,7 +1404,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="3"/>
@@ -1410,7 +1412,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="3"/>
@@ -1418,7 +1420,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="3"/>
@@ -1426,7 +1428,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="3"/>
@@ -1434,7 +1436,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="3"/>
@@ -1442,7 +1444,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="3"/>
@@ -1450,7 +1452,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="3"/>
@@ -1458,7 +1460,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="3"/>
@@ -1466,7 +1468,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="3"/>
@@ -1474,7 +1476,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="3"/>
@@ -1482,7 +1484,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="3"/>
@@ -1490,7 +1492,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="3"/>
@@ -1498,7 +1500,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="3"/>
@@ -1506,7 +1508,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="3"/>
@@ -1514,7 +1516,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="7"/>
       <c r="C129" s="3"/>
@@ -1522,7 +1524,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="7"/>
       <c r="C130" s="3"/>
@@ -1530,7 +1532,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="7"/>
       <c r="C131" s="3"/>
@@ -1538,7 +1540,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="7"/>
       <c r="C132" s="3"/>
@@ -1546,7 +1548,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="7"/>
       <c r="C133" s="3"/>
@@ -1554,7 +1556,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="7"/>
       <c r="C134" s="3"/>
@@ -1562,7 +1564,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="7"/>
       <c r="C135" s="3"/>
@@ -1570,7 +1572,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="7"/>
       <c r="C136" s="3"/>
@@ -1578,7 +1580,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="7"/>
       <c r="C137" s="3"/>
@@ -1586,7 +1588,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="7"/>
       <c r="C138" s="3"/>
@@ -1594,7 +1596,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="7"/>
       <c r="C139" s="3"/>
@@ -1602,7 +1604,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="7"/>
       <c r="C140" s="3"/>
@@ -1610,7 +1612,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="7"/>
       <c r="C141" s="3"/>
@@ -1618,7 +1620,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="7"/>
       <c r="C142" s="3"/>
@@ -1626,7 +1628,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="7"/>
       <c r="C143" s="3"/>
@@ -1634,7 +1636,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="7"/>
       <c r="C144" s="3"/>
@@ -1642,7 +1644,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="7"/>
       <c r="C145" s="3"/>
@@ -1650,7 +1652,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="7"/>
       <c r="C146" s="3"/>
@@ -1658,7 +1660,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="8"/>
       <c r="C147" s="3"/>
@@ -1666,7 +1668,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="7"/>
       <c r="C148" s="3"/>
@@ -1674,7 +1676,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="7"/>
       <c r="C149" s="3"/>
@@ -1682,7 +1684,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="7"/>
       <c r="C150" s="3"/>
@@ -1690,7 +1692,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="7"/>
       <c r="C151" s="3"/>
@@ -1698,7 +1700,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="7"/>
       <c r="C152" s="3"/>
@@ -1706,7 +1708,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="7"/>
       <c r="C153" s="3"/>
@@ -1714,7 +1716,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="7"/>
       <c r="C154" s="3"/>
@@ -1722,7 +1724,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="7"/>
       <c r="C155" s="3"/>
@@ -1730,7 +1732,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="7"/>
       <c r="C156" s="3"/>
@@ -1738,7 +1740,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="7"/>
       <c r="C157" s="3"/>
@@ -1746,7 +1748,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="7"/>
       <c r="C158" s="3"/>
@@ -1754,7 +1756,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="7"/>
       <c r="C159" s="3"/>
@@ -1762,7 +1764,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="7"/>
       <c r="C160" s="3"/>
@@ -1770,7 +1772,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="7"/>
       <c r="C161" s="3"/>
@@ -1778,13 +1780,13 @@
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="6"/>
       <c r="C162" s="5"/>
       <c r="D162" s="14"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="6"/>
       <c r="C163" s="5"/>

--- a/TM.RestHour/Equipment/EquipmentList.xlsx
+++ b/TM.RestHour/Equipment/EquipmentList.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F58E014-47DB-441D-8269-B07D2A399BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="9672"/>
+    <workbookView xWindow="48" yWindow="1140" windowWidth="22992" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipments" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>SL NO</t>
   </si>
@@ -27,37 +28,34 @@
     <t>EquipmentsName</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>ExpiryDate</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>aaj</t>
+    <t>RequiredQuantity</t>
   </si>
   <si>
-    <t>8</t>
+    <t>Unit</t>
   </si>
   <si>
-    <t>20.10.2020</t>
+    <t>OnBoardQuantity</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>Samol Saha</t>
   </si>
   <si>
-    <t>okll</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Ichapur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,11 +449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,22 +474,20 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
+      <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
@@ -501,11 +497,11 @@
       <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
+      <c r="E2" s="4">
+        <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">

--- a/TM.RestHour/Equipment/EquipmentList.xlsx
+++ b/TM.RestHour/Equipment/EquipmentList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F58E014-47DB-441D-8269-B07D2A399BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5398B1-AAA9-4535-B13C-098AB435AE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="1140" windowWidth="22992" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="228" yWindow="192" windowWidth="22620" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipments" sheetId="1" r:id="rId1"/>
@@ -40,16 +40,16 @@
     <t>OnBoardQuantity</t>
   </si>
   <si>
-    <t>Samol Saha</t>
+    <t>Syringe</t>
   </si>
   <si>
-    <t>6</t>
+    <t>100</t>
   </si>
   <si>
-    <t>Box</t>
+    <t>piece</t>
   </si>
   <si>
-    <t>Ichapur</t>
+    <t>Lab Top Rack</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="4">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>9</v>
